--- a/src/main/java/com/vapsTechnosoft/IVRM/data/StudentAdmissionFormData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/StudentAdmissionFormData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StudentAdmFormData_LeftPart" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,17 @@
     <sheet name="Others_SiblingDetailsData" sheetId="9" r:id="rId9"/>
     <sheet name="Others_AchievementData" sheetId="10" r:id="rId10"/>
     <sheet name="DocumentsUpload_DocumentName" sheetId="11" r:id="rId11"/>
+    <sheet name="StudentAdmForm_Left" sheetId="12" r:id="rId12"/>
+    <sheet name="DOB__ForLessThanRequiredAge" sheetId="16" r:id="rId13"/>
+    <sheet name="DOB_ActualConfBasedData" sheetId="17" r:id="rId14"/>
+    <sheet name="DOB_ForGreaterThanRequiredAge" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="190">
   <si>
     <t>First Name</t>
   </si>
@@ -74,9 +78,6 @@
     <t>2000002</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -128,18 +129,6 @@
     <t>2017-2018</t>
   </si>
   <si>
-    <t>DateOf Admission</t>
-  </si>
-  <si>
-    <t>Date Of Birth</t>
-  </si>
-  <si>
-    <t>02-02-2018</t>
-  </si>
-  <si>
-    <t>05-02-2015</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -200,9 +189,6 @@
     <t>O+</t>
   </si>
   <si>
-    <t>Kinder Gardenn</t>
-  </si>
-  <si>
     <t>50100006541055</t>
   </si>
   <si>
@@ -506,9 +492,6 @@
     <t>Star Student of my class</t>
   </si>
   <si>
-    <t>Generals</t>
-  </si>
-  <si>
     <t>SubCaste</t>
   </si>
   <si>
@@ -540,6 +523,81 @@
   </si>
   <si>
     <t>Migration Certificate*</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>AcademicYear</t>
+  </si>
+  <si>
+    <t>RegistrationNo</t>
+  </si>
+  <si>
+    <t>DateOfAdm</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>R0101</t>
+  </si>
+  <si>
+    <t>R0202</t>
+  </si>
+  <si>
+    <t>Less than 2 year , You are not eligible for PN class</t>
+  </si>
+  <si>
+    <t>Greater than 3 year , You are not eligible for PN class</t>
+  </si>
+  <si>
+    <t>HINDU</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Age_Less</t>
+  </si>
+  <si>
+    <t>04-09-2015</t>
+  </si>
+  <si>
+    <t>10-07-2017</t>
+  </si>
+  <si>
+    <t>ClassToAdm</t>
+  </si>
+  <si>
+    <t>Dob_AsperAppl</t>
+  </si>
+  <si>
+    <t>ClassForAdm</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>GreaterAgeMsg</t>
+  </si>
+  <si>
+    <t>10-10-2015</t>
+  </si>
+  <si>
+    <t>Middle School</t>
   </si>
 </sst>
 </file>
@@ -636,24 +694,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,11 +732,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,6 +749,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -986,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,25 +1054,24 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,143 +1082,125 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1186,19 +1223,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
+      <c r="A2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1220,19 +1257,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1245,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1264,85 +1482,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="M1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="C2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="E2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="I2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>31</v>
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1371,49 +1589,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>31</v>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1451,121 +1669,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="L1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="Q1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="R1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="S1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="F2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="H2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="K2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>31</v>
+      <c r="Q2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1606,121 +1824,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="L1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="Q1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="R1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="S1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>31</v>
+      <c r="S2" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1746,25 +1964,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
+      <c r="A2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1793,91 +2011,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="I1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="L2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="M2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>31</v>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1902,37 +2120,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1960,31 +2178,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
+      <c r="A2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
